--- a/material/doc/问卷调查系统数据库设计表.xlsx
+++ b/material/doc/问卷调查系统数据库设计表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCAE3F4-6493-492B-A4D0-CBCF14520FA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户角色表" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="113">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select_content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选项内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,23 +428,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>question_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>question_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subQuestion_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>副问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于矩阵选择</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subQuestion_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>附属问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用于矩阵选择</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +566,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -507,16 +600,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -543,7 +639,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -821,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -883,7 +979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -971,7 +1067,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -1023,7 +1119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1099,7 +1195,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
@@ -1161,22 +1257,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1207,9 +1303,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
@@ -1221,7 +1317,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1235,7 +1331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -1249,9 +1345,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
@@ -1263,7 +1359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1275,6 +1371,20 @@
       </c>
       <c r="G7" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1331,7 +1441,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>67</v>
@@ -1351,11 +1461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1474,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1381,9 +1491,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>71</v>
@@ -1395,9 +1505,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>72</v>
@@ -1409,41 +1519,55 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1475,10 +1599,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -1489,7 +1613,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>72</v>
@@ -1506,7 +1630,7 @@
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -1517,13 +1641,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1534,10 +1658,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1569,13 +1693,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -1583,24 +1707,24 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1608,16 +1732,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
